--- a/team_USL/DB.xlsx
+++ b/team_USL/DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keike\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PBL\pbl-app-2025\team_USL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{824BA6B5-8242-4DA9-B6AD-34B17445E3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB60E43B-CE83-4AF6-8CBE-FFEC2EC17A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4DCB64A9-0D8A-4ACE-8102-1981B1425A2C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4DCB64A9-0D8A-4ACE-8102-1981B1425A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>room_table</t>
   </si>
@@ -104,22 +104,58 @@
     <t>boolian</t>
   </si>
   <si>
+    <t>フロア</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>room_tableと連携(マスター)</t>
+  </si>
+  <si>
+    <t>画像のURL</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注記</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>floor_table</t>
-  </si>
-  <si>
-    <t>フロア</t>
-  </si>
-  <si>
-    <t>floor</t>
-  </si>
-  <si>
-    <t>room_tableと連携(マスター)</t>
-  </si>
-  <si>
-    <t>画像のURL</t>
-  </si>
-  <si>
-    <t>url</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -151,12 +187,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -165,9 +216,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,160 +560,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8215AA55-0A01-4CBF-A76C-BFF173237863}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.4140625" customWidth="1"/>
+    <col min="1" max="1" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
